--- a/database/industries/dode/shesadaf/balancesheet/yearly.xlsx
+++ b/database/industries/dode/shesadaf/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B824F98E-AF94-40F7-BC15-5FE2E696083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A01048F-E787-4F55-B15D-E3285A267DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-11-02 (2)</t>
-  </si>
-  <si>
     <t>1399-04-18 (8)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-05-19 (9)</t>
   </si>
   <si>
-    <t>1401-11-01 (6)</t>
+    <t>1402-02-27 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,28 +842,28 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>20641</v>
+        <v>57264</v>
       </c>
       <c r="E12" s="15">
-        <v>57264</v>
+        <v>247513</v>
       </c>
       <c r="F12" s="15">
-        <v>247513</v>
+        <v>301092</v>
       </c>
       <c r="G12" s="15">
-        <v>301092</v>
+        <v>443348</v>
       </c>
       <c r="H12" s="15">
-        <v>443348</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1908937</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,70 +884,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>150677</v>
+        <v>600377</v>
       </c>
       <c r="E14" s="15">
-        <v>600377</v>
+        <v>369775</v>
       </c>
       <c r="F14" s="15">
-        <v>369775</v>
+        <v>228175</v>
       </c>
       <c r="G14" s="15">
-        <v>228175</v>
+        <v>2018602</v>
       </c>
       <c r="H14" s="15">
-        <v>2018602</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2479032</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>186936</v>
+        <v>351273</v>
       </c>
       <c r="E15" s="11">
-        <v>351273</v>
+        <v>542524</v>
       </c>
       <c r="F15" s="11">
-        <v>542524</v>
+        <v>856049</v>
       </c>
       <c r="G15" s="11">
-        <v>856049</v>
+        <v>2364123</v>
       </c>
       <c r="H15" s="11">
-        <v>2364123</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2752769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>139903</v>
+        <v>221205</v>
       </c>
       <c r="E16" s="15">
-        <v>221205</v>
+        <v>85679</v>
       </c>
       <c r="F16" s="15">
-        <v>85679</v>
+        <v>349698</v>
       </c>
       <c r="G16" s="15">
-        <v>349698</v>
+        <v>158076</v>
       </c>
       <c r="H16" s="15">
-        <v>158076</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>350174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,28 +968,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>498157</v>
+        <v>1230119</v>
       </c>
       <c r="E18" s="17">
-        <v>1230119</v>
+        <v>1245491</v>
       </c>
       <c r="F18" s="17">
-        <v>1245491</v>
+        <v>1735014</v>
       </c>
       <c r="G18" s="17">
-        <v>1735014</v>
+        <v>4984149</v>
       </c>
       <c r="H18" s="17">
-        <v>4984149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7490912</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,49 +1052,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>147790</v>
+        <v>126628</v>
       </c>
       <c r="E22" s="15">
-        <v>126628</v>
+        <v>276909</v>
       </c>
       <c r="F22" s="15">
-        <v>276909</v>
+        <v>1220254</v>
       </c>
       <c r="G22" s="15">
-        <v>1220254</v>
+        <v>1597772</v>
       </c>
       <c r="H22" s="15">
-        <v>1597772</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3010651</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>10606</v>
+        <v>12354</v>
       </c>
       <c r="E23" s="11">
-        <v>12354</v>
+        <v>12282</v>
       </c>
       <c r="F23" s="11">
-        <v>12282</v>
+        <v>12108</v>
       </c>
       <c r="G23" s="11">
-        <v>12108</v>
+        <v>11113</v>
       </c>
       <c r="H23" s="11">
-        <v>11113</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12463</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1133,52 +1133,52 @@
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>158396</v>
+        <v>138982</v>
       </c>
       <c r="E26" s="17">
-        <v>138982</v>
+        <v>289191</v>
       </c>
       <c r="F26" s="17">
-        <v>289191</v>
+        <v>1232362</v>
       </c>
       <c r="G26" s="17">
-        <v>1232362</v>
+        <v>1608885</v>
       </c>
       <c r="H26" s="17">
-        <v>1608885</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3035614</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>656553</v>
+        <v>1369101</v>
       </c>
       <c r="E27" s="19">
-        <v>1369101</v>
+        <v>1534682</v>
       </c>
       <c r="F27" s="19">
-        <v>1534682</v>
+        <v>2967376</v>
       </c>
       <c r="G27" s="19">
-        <v>2967376</v>
+        <v>6593034</v>
       </c>
       <c r="H27" s="19">
-        <v>6593034</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10526526</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,28 +1189,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>43808</v>
+        <v>62243</v>
       </c>
       <c r="E29" s="15">
-        <v>62243</v>
+        <v>196222</v>
       </c>
       <c r="F29" s="15">
-        <v>196222</v>
+        <v>890995</v>
       </c>
       <c r="G29" s="15">
-        <v>890995</v>
+        <v>1944356</v>
       </c>
       <c r="H29" s="15">
-        <v>1944356</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4374903</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,49 +1231,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>57327</v>
+        <v>199370</v>
       </c>
       <c r="E31" s="15">
-        <v>199370</v>
+        <v>164690</v>
       </c>
       <c r="F31" s="15">
-        <v>164690</v>
+        <v>411185</v>
       </c>
       <c r="G31" s="15">
-        <v>411185</v>
+        <v>80778</v>
       </c>
       <c r="H31" s="15">
-        <v>80778</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>587319</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>17</v>
+        <v>835</v>
       </c>
       <c r="E32" s="11">
-        <v>835</v>
+        <v>3297</v>
       </c>
       <c r="F32" s="11">
-        <v>3297</v>
+        <v>1496</v>
       </c>
       <c r="G32" s="11">
         <v>1496</v>
       </c>
       <c r="H32" s="11">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1282,40 +1282,40 @@
         <v>0</v>
       </c>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>272782</v>
       </c>
       <c r="F33" s="15">
-        <v>272782</v>
+        <v>208881</v>
       </c>
       <c r="G33" s="15">
-        <v>208881</v>
+        <v>532053</v>
       </c>
       <c r="H33" s="15">
-        <v>532053</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>178104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>53896</v>
+        <v>33903</v>
       </c>
       <c r="E34" s="11">
-        <v>33903</v>
+        <v>48001</v>
       </c>
       <c r="F34" s="11">
-        <v>48001</v>
+        <v>33702</v>
       </c>
       <c r="G34" s="11">
-        <v>33702</v>
+        <v>865372</v>
       </c>
       <c r="H34" s="11">
-        <v>865372</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1006569</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,28 +1357,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>155048</v>
+        <v>296351</v>
       </c>
       <c r="E37" s="17">
-        <v>296351</v>
+        <v>684992</v>
       </c>
       <c r="F37" s="17">
-        <v>684992</v>
+        <v>1546259</v>
       </c>
       <c r="G37" s="17">
-        <v>1546259</v>
+        <v>3424055</v>
       </c>
       <c r="H37" s="17">
-        <v>3424055</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6146925</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,13 +1399,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -1420,91 +1420,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>129837</v>
+        <v>71153</v>
       </c>
       <c r="E40" s="11">
-        <v>71153</v>
+        <v>52082</v>
       </c>
       <c r="F40" s="11">
-        <v>52082</v>
+        <v>18380</v>
       </c>
       <c r="G40" s="11">
-        <v>18380</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>9121</v>
+        <v>12645</v>
       </c>
       <c r="E41" s="15">
-        <v>12645</v>
+        <v>18982</v>
       </c>
       <c r="F41" s="15">
-        <v>18982</v>
+        <v>29770</v>
       </c>
       <c r="G41" s="15">
-        <v>29770</v>
+        <v>47476</v>
       </c>
       <c r="H41" s="15">
-        <v>47476</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>86802</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>138958</v>
+        <v>83798</v>
       </c>
       <c r="E42" s="19">
-        <v>83798</v>
+        <v>71064</v>
       </c>
       <c r="F42" s="19">
-        <v>71064</v>
+        <v>48150</v>
       </c>
       <c r="G42" s="19">
-        <v>48150</v>
+        <v>47476</v>
       </c>
       <c r="H42" s="19">
-        <v>47476</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>86802</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>294006</v>
+        <v>380149</v>
       </c>
       <c r="E43" s="17">
-        <v>380149</v>
+        <v>756056</v>
       </c>
       <c r="F43" s="17">
-        <v>756056</v>
+        <v>1594409</v>
       </c>
       <c r="G43" s="17">
-        <v>1594409</v>
+        <v>3471531</v>
       </c>
       <c r="H43" s="17">
-        <v>3471531</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6233727</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,13 +1515,13 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>169956</v>
+        <v>200000</v>
       </c>
       <c r="E45" s="15">
         <v>200000</v>
@@ -1530,13 +1530,13 @@
         <v>200000</v>
       </c>
       <c r="G45" s="15">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="H45" s="15">
         <v>700000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>471104</v>
       </c>
       <c r="G47" s="15">
-        <v>471104</v>
+        <v>0</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>16488</v>
+        <v>20000</v>
       </c>
       <c r="E50" s="11">
         <v>20000</v>
@@ -1635,13 +1635,13 @@
         <v>20000</v>
       </c>
       <c r="G50" s="11">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="H50" s="11">
         <v>70000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>0</v>
+      <c r="D52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>30</v>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,70 +1746,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>176103</v>
+        <v>768952</v>
       </c>
       <c r="E56" s="11">
-        <v>768952</v>
+        <v>558626</v>
       </c>
       <c r="F56" s="11">
-        <v>558626</v>
+        <v>681863</v>
       </c>
       <c r="G56" s="11">
-        <v>681863</v>
+        <v>2351503</v>
       </c>
       <c r="H56" s="11">
-        <v>2351503</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3522799</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>362547</v>
+        <v>988952</v>
       </c>
       <c r="E57" s="17">
-        <v>988952</v>
+        <v>778626</v>
       </c>
       <c r="F57" s="17">
-        <v>778626</v>
+        <v>1372967</v>
       </c>
       <c r="G57" s="17">
-        <v>1372967</v>
+        <v>3121503</v>
       </c>
       <c r="H57" s="17">
-        <v>3121503</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4292799</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>656553</v>
+        <v>1369101</v>
       </c>
       <c r="E58" s="19">
-        <v>1369101</v>
+        <v>1534682</v>
       </c>
       <c r="F58" s="19">
-        <v>1534682</v>
+        <v>2967376</v>
       </c>
       <c r="G58" s="19">
-        <v>2967376</v>
+        <v>6593034</v>
       </c>
       <c r="H58" s="19">
-        <v>6593034</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10526526</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
